--- a/Tables/did_reg_emp.xlsx
+++ b/Tables/did_reg_emp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68DE56-4B2B-46D8-B933-2A8D8E6FA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50165415-9575-430C-BB7B-C99F7899930F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_emp" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Observations</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>[2-50]</t>
+  </si>
+  <si>
+    <t>$H_0 : \alpha = 0$ (p-value)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -182,6 +185,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -255,10 +262,10 @@
             <v>-0.046***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.12**</v>
+            <v>-0.00034</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.15**</v>
+            <v>0.0012</v>
           </cell>
           <cell r="F5" t="str">
             <v>-0.016</v>
@@ -287,10 +294,10 @@
             <v>(0.015)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.047)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.076)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(0.013)</v>
@@ -319,10 +326,10 @@
             <v>-0.036***</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.10**</v>
+            <v>-0.0053</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.13*</v>
+            <v>-0.0091</v>
           </cell>
           <cell r="F8" t="str">
             <v>-0.0094</v>
@@ -351,10 +358,10 @@
             <v>(0.011)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.048)</v>
+            <v>(0.0086)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.065)</v>
+            <v>(0.0080)</v>
           </cell>
           <cell r="F9" t="str">
             <v>(0.0075)</v>
@@ -383,10 +390,10 @@
             <v>-0.015**</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.052*</v>
+            <v>-0.0028</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.065*</v>
+            <v>-0.0054</v>
           </cell>
           <cell r="F11" t="str">
             <v>-0.0018</v>
@@ -415,10 +422,10 @@
             <v>(0.0061)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(0.027)</v>
+            <v>(0.0046)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(0.035)</v>
+            <v>(0.0045)</v>
           </cell>
           <cell r="F12" t="str">
             <v>(0.0042)</v>
@@ -447,10 +454,10 @@
             <v>0.011**</v>
           </cell>
           <cell r="D14" t="str">
-            <v>0.038**</v>
+            <v>-0.0094**</v>
           </cell>
           <cell r="E14" t="str">
-            <v>0.048**</v>
+            <v>-0.0067</v>
           </cell>
           <cell r="F14" t="str">
             <v>-0.0015</v>
@@ -479,10 +486,10 @@
             <v>(0.0051)</v>
           </cell>
           <cell r="D15" t="str">
-            <v>(0.019)</v>
+            <v>(0.0046)</v>
           </cell>
           <cell r="E15" t="str">
-            <v>(0.024)</v>
+            <v>(0.0046)</v>
           </cell>
           <cell r="F15" t="str">
             <v>(0.0038)</v>
@@ -511,10 +518,10 @@
             <v>0.022***</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.070**</v>
+            <v>-0.015**</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.091**</v>
+            <v>-0.0070</v>
           </cell>
           <cell r="F17" t="str">
             <v>-0.0068</v>
@@ -543,10 +550,10 @@
             <v>(0.0087)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.031)</v>
+            <v>(0.0074)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.041)</v>
+            <v>(0.0074)</v>
           </cell>
           <cell r="F18" t="str">
             <v>(0.0065)</v>
@@ -575,10 +582,10 @@
             <v>0.028**</v>
           </cell>
           <cell r="D20" t="str">
-            <v>0.074*</v>
+            <v>-0.022**</v>
           </cell>
           <cell r="E20" t="str">
-            <v>0.11**</v>
+            <v>-0.0093</v>
           </cell>
           <cell r="F20" t="str">
             <v>-0.013</v>
@@ -607,10 +614,10 @@
             <v>(0.011)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.039)</v>
+            <v>(0.0098)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.049)</v>
+            <v>(0.0099)</v>
           </cell>
           <cell r="F21" t="str">
             <v>(0.0089)</v>
@@ -639,10 +646,10 @@
             <v>0.022</v>
           </cell>
           <cell r="D23" t="str">
-            <v>0.061</v>
+            <v>-0.026**</v>
           </cell>
           <cell r="E23" t="str">
-            <v>0.096*</v>
+            <v>-0.0095</v>
           </cell>
           <cell r="F23" t="str">
             <v>-0.022**</v>
@@ -671,10 +678,10 @@
             <v>(0.014)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(0.043)</v>
+            <v>(0.012)</v>
           </cell>
           <cell r="E24" t="str">
-            <v>(0.052)</v>
+            <v>(0.012)</v>
           </cell>
           <cell r="F24" t="str">
             <v>(0.011)</v>
@@ -703,10 +710,10 @@
             <v>0.023</v>
           </cell>
           <cell r="D26" t="str">
-            <v>0.044</v>
+            <v>-0.038**</v>
           </cell>
           <cell r="E26" t="str">
-            <v>0.096*</v>
+            <v>-0.0090</v>
           </cell>
           <cell r="F26" t="str">
             <v>-0.036***</v>
@@ -738,10 +745,10 @@
             <v>(0.017)</v>
           </cell>
           <cell r="D27" t="str">
-            <v>(0.050)</v>
+            <v>(0.015)</v>
           </cell>
           <cell r="E27" t="str">
-            <v>(0.053)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="F27" t="str">
             <v>(0.014)</v>
@@ -770,10 +777,10 @@
             <v>66127</v>
           </cell>
           <cell r="D29" t="str">
-            <v>24402</v>
+            <v>64223</v>
           </cell>
           <cell r="E29" t="str">
-            <v>24285</v>
+            <v>64082</v>
           </cell>
           <cell r="F29" t="str">
             <v>65802</v>
@@ -805,10 +812,10 @@
             <v>0.233</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.266</v>
+            <v>0.186</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.266</v>
+            <v>0.193</v>
           </cell>
           <cell r="F30" t="str">
             <v>0.193</v>
@@ -840,10 +847,10 @@
             <v>6.32</v>
           </cell>
           <cell r="D31" t="str">
-            <v>7.61</v>
+            <v>3.18</v>
           </cell>
           <cell r="E31" t="str">
-            <v>7.60</v>
+            <v>3.17</v>
           </cell>
           <cell r="F31" t="str">
             <v>5.56</v>
@@ -872,10 +879,10 @@
             <v>1407</v>
           </cell>
           <cell r="D32" t="str">
-            <v>764</v>
+            <v>1410</v>
           </cell>
           <cell r="E32" t="str">
-            <v>761</v>
+            <v>1407</v>
           </cell>
           <cell r="F32" t="str">
             <v>1410</v>
@@ -894,6 +901,23 @@
           </cell>
           <cell r="K32" t="str">
             <v>761</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>0.00074</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>2.1e-11</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>0.0020</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>0.00067</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>0.000000063</v>
           </cell>
         </row>
       </sheetData>
@@ -1199,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22966959-63DB-41F0-96C7-D2C53CEFC3BA}">
-  <dimension ref="A2:O27"/>
+  <dimension ref="A2:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O26"/>
+      <selection activeCell="O27" sqref="A2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,30 +1237,30 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -1338,11 +1362,11 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]did_reg_emp!D5</f>
-        <v>-0.12**</v>
+        <v>-0.00034</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]did_reg_emp!E5</f>
-        <v>-0.15**</v>
+        <v>0.0012</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>[1]did_reg_emp!F5</f>
@@ -1380,11 +1404,11 @@
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]did_reg_emp!D6</f>
-        <v>(0.047)</v>
+        <v>(0.014)</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]did_reg_emp!E6</f>
-        <v>(0.076)</v>
+        <v>(0.011)</v>
       </c>
       <c r="H6" s="3" t="str">
         <f>[1]did_reg_emp!F6</f>
@@ -1425,11 +1449,11 @@
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]did_reg_emp!D8</f>
-        <v>-0.10**</v>
+        <v>-0.0053</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]did_reg_emp!E8</f>
-        <v>-0.13*</v>
+        <v>-0.0091</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>[1]did_reg_emp!F8</f>
@@ -1467,11 +1491,11 @@
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]did_reg_emp!D9</f>
-        <v>(0.048)</v>
+        <v>(0.0086)</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>[1]did_reg_emp!E9</f>
-        <v>(0.065)</v>
+        <v>(0.0080)</v>
       </c>
       <c r="H8" s="3" t="str">
         <f>[1]did_reg_emp!F9</f>
@@ -1512,11 +1536,11 @@
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]did_reg_emp!D11</f>
-        <v>-0.052*</v>
+        <v>-0.0028</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]did_reg_emp!E11</f>
-        <v>-0.065*</v>
+        <v>-0.0054</v>
       </c>
       <c r="H9" s="3" t="str">
         <f>[1]did_reg_emp!F11</f>
@@ -1554,11 +1578,11 @@
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]did_reg_emp!D12</f>
-        <v>(0.027)</v>
+        <v>(0.0046)</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]did_reg_emp!E12</f>
-        <v>(0.035)</v>
+        <v>(0.0045)</v>
       </c>
       <c r="H10" s="3" t="str">
         <f>[1]did_reg_emp!F12</f>
@@ -1599,11 +1623,11 @@
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]did_reg_emp!D14</f>
-        <v>0.038**</v>
+        <v>-0.0094**</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]did_reg_emp!E14</f>
-        <v>0.048**</v>
+        <v>-0.0067</v>
       </c>
       <c r="H12" s="3" t="str">
         <f>[1]did_reg_emp!F14</f>
@@ -1641,11 +1665,11 @@
       </c>
       <c r="E13" s="3" t="str">
         <f>[1]did_reg_emp!D15</f>
-        <v>(0.019)</v>
+        <v>(0.0046)</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>[1]did_reg_emp!E15</f>
-        <v>(0.024)</v>
+        <v>(0.0046)</v>
       </c>
       <c r="H13" s="3" t="str">
         <f>[1]did_reg_emp!F15</f>
@@ -1686,11 +1710,11 @@
       </c>
       <c r="E14" s="3" t="str">
         <f>[1]did_reg_emp!D17</f>
-        <v>0.070**</v>
+        <v>-0.015**</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>[1]did_reg_emp!E17</f>
-        <v>0.091**</v>
+        <v>-0.0070</v>
       </c>
       <c r="H14" s="3" t="str">
         <f>[1]did_reg_emp!F17</f>
@@ -1728,11 +1752,11 @@
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]did_reg_emp!D18</f>
-        <v>(0.031)</v>
+        <v>(0.0074)</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]did_reg_emp!E18</f>
-        <v>(0.041)</v>
+        <v>(0.0074)</v>
       </c>
       <c r="H15" s="3" t="str">
         <f>[1]did_reg_emp!F18</f>
@@ -1773,11 +1797,11 @@
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]did_reg_emp!D20</f>
-        <v>0.074*</v>
+        <v>-0.022**</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]did_reg_emp!E20</f>
-        <v>0.11**</v>
+        <v>-0.0093</v>
       </c>
       <c r="H16" s="3" t="str">
         <f>[1]did_reg_emp!F20</f>
@@ -1815,11 +1839,11 @@
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]did_reg_emp!D21</f>
-        <v>(0.039)</v>
+        <v>(0.0098)</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]did_reg_emp!E21</f>
-        <v>(0.049)</v>
+        <v>(0.0099)</v>
       </c>
       <c r="H17" s="3" t="str">
         <f>[1]did_reg_emp!F21</f>
@@ -1860,11 +1884,11 @@
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]did_reg_emp!D23</f>
-        <v>0.061</v>
+        <v>-0.026**</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]did_reg_emp!E23</f>
-        <v>0.096*</v>
+        <v>-0.0095</v>
       </c>
       <c r="H18" s="3" t="str">
         <f>[1]did_reg_emp!F23</f>
@@ -1902,11 +1926,11 @@
       </c>
       <c r="E19" s="3" t="str">
         <f>[1]did_reg_emp!D24</f>
-        <v>(0.043)</v>
+        <v>(0.012)</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>[1]did_reg_emp!E24</f>
-        <v>(0.052)</v>
+        <v>(0.012)</v>
       </c>
       <c r="H19" s="3" t="str">
         <f>[1]did_reg_emp!F24</f>
@@ -1947,11 +1971,11 @@
       </c>
       <c r="E20" s="3" t="str">
         <f>[1]did_reg_emp!D26</f>
-        <v>0.044</v>
+        <v>-0.038**</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>[1]did_reg_emp!E26</f>
-        <v>0.096*</v>
+        <v>-0.0090</v>
       </c>
       <c r="H20" s="3" t="str">
         <f>[1]did_reg_emp!F26</f>
@@ -1993,11 +2017,11 @@
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]did_reg_emp!D27</f>
-        <v>(0.050)</v>
+        <v>(0.015)</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]did_reg_emp!E27</f>
-        <v>(0.053)</v>
+        <v>(0.014)</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>[1]did_reg_emp!F27</f>
@@ -2039,11 +2063,11 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="str">
         <f>[1]did_reg_emp!D29</f>
-        <v>24402</v>
+        <v>64223</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>[1]did_reg_emp!E29</f>
-        <v>24285</v>
+        <v>64082</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="str">
@@ -2087,11 +2111,11 @@
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]did_reg_emp!D32</f>
-        <v>764</v>
+        <v>1410</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>[1]did_reg_emp!E32</f>
-        <v>761</v>
+        <v>1407</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>[1]did_reg_emp!F32</f>
@@ -2133,11 +2157,11 @@
       </c>
       <c r="E25" s="3" t="str">
         <f>[1]did_reg_emp!D30</f>
-        <v>0.266</v>
+        <v>0.186</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>[1]did_reg_emp!E30</f>
-        <v>0.266</v>
+        <v>0.193</v>
       </c>
       <c r="H25" s="3" t="str">
         <f>[1]did_reg_emp!F30</f>
@@ -2164,57 +2188,91 @@
         <v>0.266</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="str">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="str">
         <f>[1]did_reg_emp!A31</f>
         <v>DepVarMean</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="10" t="str">
         <f>[1]did_reg_emp!B31</f>
         <v>6.33</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="10" t="str">
         <f>[1]did_reg_emp!C31</f>
         <v>6.32</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="str">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="str">
         <f>[1]did_reg_emp!D31</f>
-        <v>7.61</v>
-      </c>
-      <c r="F26" s="6" t="str">
+        <v>3.18</v>
+      </c>
+      <c r="F26" s="10" t="str">
         <f>[1]did_reg_emp!E31</f>
-        <v>7.60</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="str">
+        <v>3.17</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10" t="str">
         <f>[1]did_reg_emp!F31</f>
         <v>5.56</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="10" t="str">
         <f>[1]did_reg_emp!G31</f>
         <v>5.55</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="str">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="str">
         <f>[1]did_reg_emp!H31</f>
         <v>6.19</v>
       </c>
-      <c r="L26" s="6" t="str">
+      <c r="L26" s="10" t="str">
         <f>[1]did_reg_emp!I31</f>
         <v>6.18</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6" t="str">
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="str">
         <f>[1]did_reg_emp!J31</f>
         <v>7.61</v>
       </c>
-      <c r="O26" s="6" t="str">
+      <c r="O26" s="10" t="str">
         <f>[1]did_reg_emp!K31</f>
         <v>7.60</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <f>ROUND([1]did_reg_emp!C33,3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <f>ROUND([1]did_reg_emp!E33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <f>ROUND([1]did_reg_emp!G33,3)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <f>ROUND([1]did_reg_emp!I33,3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6">
+        <f>ROUND([1]did_reg_emp!K33,3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>

--- a/Tables/did_reg_emp.xlsx
+++ b/Tables/did_reg_emp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50165415-9575-430C-BB7B-C99F7899930F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8060F99D-6308-4D93-8CBC-F6ED9D255683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_emp" sheetId="1" r:id="rId1"/>
@@ -256,28 +256,28 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-0.069***</v>
+            <v>-0.066***</v>
           </cell>
           <cell r="C5" t="str">
             <v>-0.046***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.00034</v>
+            <v>-0.00020</v>
           </cell>
           <cell r="E5" t="str">
             <v>0.0012</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-0.016</v>
+            <v>-0.017</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.0031</v>
+            <v>-0.0029</v>
           </cell>
           <cell r="H5" t="str">
             <v>-0.019</v>
           </cell>
           <cell r="I5" t="str">
-            <v>0.0087</v>
+            <v>0.0086</v>
           </cell>
           <cell r="J5" t="str">
             <v>-0.12**</v>
@@ -320,19 +320,19 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.044***</v>
+            <v>-0.042***</v>
           </cell>
           <cell r="C8" t="str">
             <v>-0.036***</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.0053</v>
+            <v>-0.0052</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.0091</v>
+            <v>-0.0090</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.0094</v>
+            <v>-0.0095</v>
           </cell>
           <cell r="G8" t="str">
             <v>-0.0051</v>
@@ -352,7 +352,7 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(0.012)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="C9" t="str">
             <v>(0.011)</v>
@@ -384,22 +384,22 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-0.019***</v>
+            <v>-0.018***</v>
           </cell>
           <cell r="C11" t="str">
             <v>-0.015**</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.0028</v>
+            <v>-0.0030</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.0054</v>
+            <v>-0.0057</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-0.0018</v>
+            <v>-0.0019</v>
           </cell>
           <cell r="G11" t="str">
-            <v>0.0011</v>
+            <v>0.0012</v>
           </cell>
           <cell r="H11" t="str">
             <v>-0.0034</v>
@@ -416,7 +416,7 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>(0.0062)</v>
+            <v>(0.0061)</v>
           </cell>
           <cell r="C12" t="str">
             <v>(0.0061)</v>
@@ -448,25 +448,25 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>0.015***</v>
+            <v>0.014***</v>
           </cell>
           <cell r="C14" t="str">
             <v>0.011**</v>
           </cell>
           <cell r="D14" t="str">
-            <v>-0.0094**</v>
+            <v>-0.0096**</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-0.0067</v>
+            <v>-0.0069</v>
           </cell>
           <cell r="F14" t="str">
-            <v>-0.0015</v>
+            <v>-0.0018</v>
           </cell>
           <cell r="G14" t="str">
-            <v>-0.0012</v>
+            <v>-0.0017</v>
           </cell>
           <cell r="H14" t="str">
-            <v>-0.0024</v>
+            <v>-0.0023</v>
           </cell>
           <cell r="I14" t="str">
             <v>-0.0089</v>
@@ -483,7 +483,7 @@
             <v>(0.0050)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(0.0051)</v>
+            <v>(0.0050)</v>
           </cell>
           <cell r="D15" t="str">
             <v>(0.0046)</v>
@@ -515,19 +515,19 @@
             <v>0.024***</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.022***</v>
+            <v>0.023***</v>
           </cell>
           <cell r="D17" t="str">
             <v>-0.015**</v>
           </cell>
           <cell r="E17" t="str">
-            <v>-0.0070</v>
+            <v>-0.0072</v>
           </cell>
           <cell r="F17" t="str">
             <v>-0.0068</v>
           </cell>
           <cell r="G17" t="str">
-            <v>-0.0033</v>
+            <v>-0.0036</v>
           </cell>
           <cell r="H17" t="str">
             <v>-0.0019</v>
@@ -544,10 +544,10 @@
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>(0.0091)</v>
+            <v>(0.0090)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.0087)</v>
+            <v>(0.0085)</v>
           </cell>
           <cell r="D18" t="str">
             <v>(0.0074)</v>
@@ -556,7 +556,7 @@
             <v>(0.0074)</v>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.0065)</v>
+            <v>(0.0066)</v>
           </cell>
           <cell r="G18" t="str">
             <v>(0.0062)</v>
@@ -576,25 +576,25 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>0.025**</v>
+            <v>0.027**</v>
           </cell>
           <cell r="C20" t="str">
-            <v>0.028**</v>
+            <v>0.029***</v>
           </cell>
           <cell r="D20" t="str">
             <v>-0.022**</v>
           </cell>
           <cell r="E20" t="str">
-            <v>-0.0093</v>
+            <v>-0.0095</v>
           </cell>
           <cell r="F20" t="str">
-            <v>-0.013</v>
+            <v>-0.012</v>
           </cell>
           <cell r="G20" t="str">
-            <v>-0.0063</v>
+            <v>-0.0058</v>
           </cell>
           <cell r="H20" t="str">
-            <v>0.00026</v>
+            <v>0.00025</v>
           </cell>
           <cell r="I20" t="str">
             <v>-0.0043</v>
@@ -640,16 +640,16 @@
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>0.017</v>
+            <v>0.019</v>
           </cell>
           <cell r="C23" t="str">
-            <v>0.022</v>
+            <v>0.024*</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-0.026**</v>
+            <v>-0.027**</v>
           </cell>
           <cell r="E23" t="str">
-            <v>-0.0095</v>
+            <v>-0.0098</v>
           </cell>
           <cell r="F23" t="str">
             <v>-0.022**</v>
@@ -658,7 +658,7 @@
             <v>-0.013</v>
           </cell>
           <cell r="H23" t="str">
-            <v>0.000070</v>
+            <v>0.000078</v>
           </cell>
           <cell r="I23" t="str">
             <v>-0.0038</v>
@@ -672,7 +672,7 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(0.016)</v>
+            <v>(0.015)</v>
           </cell>
           <cell r="C24" t="str">
             <v>(0.014)</v>
@@ -704,22 +704,22 @@
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>0.00011</v>
+            <v>0.0059</v>
           </cell>
           <cell r="C26" t="str">
-            <v>0.023</v>
+            <v>0.026</v>
           </cell>
           <cell r="D26" t="str">
-            <v>-0.038**</v>
+            <v>-0.039***</v>
           </cell>
           <cell r="E26" t="str">
-            <v>-0.0090</v>
+            <v>-0.0093</v>
           </cell>
           <cell r="F26" t="str">
-            <v>-0.036***</v>
+            <v>-0.035***</v>
           </cell>
           <cell r="G26" t="str">
-            <v>-0.015</v>
+            <v>-0.014</v>
           </cell>
           <cell r="H26" t="str">
             <v>-0.024</v>
@@ -739,10 +739,10 @@
             <v/>
           </cell>
           <cell r="B27" t="str">
-            <v>(0.020)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(0.017)</v>
+            <v>(0.016)</v>
           </cell>
           <cell r="D27" t="str">
             <v>(0.015)</v>
@@ -771,28 +771,28 @@
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>66268</v>
+            <v>65424</v>
           </cell>
           <cell r="C29" t="str">
-            <v>66127</v>
+            <v>65283</v>
           </cell>
           <cell r="D29" t="str">
-            <v>64223</v>
+            <v>63586</v>
           </cell>
           <cell r="E29" t="str">
-            <v>64082</v>
+            <v>63445</v>
           </cell>
           <cell r="F29" t="str">
-            <v>65802</v>
+            <v>65200</v>
           </cell>
           <cell r="G29" t="str">
-            <v>65661</v>
+            <v>65059</v>
           </cell>
           <cell r="H29" t="str">
-            <v>42849</v>
+            <v>42839</v>
           </cell>
           <cell r="I29" t="str">
-            <v>42708</v>
+            <v>42698</v>
           </cell>
           <cell r="J29" t="str">
             <v>24402</v>
@@ -806,22 +806,22 @@
             <v>R-sq</v>
           </cell>
           <cell r="B30" t="str">
-            <v>0.221</v>
+            <v>0.229</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.233</v>
+            <v>0.240</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.186</v>
+            <v>0.188</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.193</v>
+            <v>0.195</v>
           </cell>
           <cell r="F30" t="str">
-            <v>0.193</v>
+            <v>0.198</v>
           </cell>
           <cell r="G30" t="str">
-            <v>0.204</v>
+            <v>0.210</v>
           </cell>
           <cell r="H30" t="str">
             <v>0.270</v>
@@ -841,22 +841,22 @@
             <v>DepVarMean</v>
           </cell>
           <cell r="B31" t="str">
-            <v>6.33</v>
+            <v>6.39</v>
           </cell>
           <cell r="C31" t="str">
-            <v>6.32</v>
+            <v>6.38</v>
           </cell>
           <cell r="D31" t="str">
-            <v>3.18</v>
+            <v>3.21</v>
           </cell>
           <cell r="E31" t="str">
-            <v>3.17</v>
+            <v>3.20</v>
           </cell>
           <cell r="F31" t="str">
-            <v>5.56</v>
+            <v>5.59</v>
           </cell>
           <cell r="G31" t="str">
-            <v>5.55</v>
+            <v>5.58</v>
           </cell>
           <cell r="H31" t="str">
             <v>6.19</v>
@@ -873,28 +873,28 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="C32" t="str">
-            <v>1407</v>
+            <v>1389</v>
           </cell>
           <cell r="D32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="E32" t="str">
-            <v>1407</v>
+            <v>1389</v>
           </cell>
           <cell r="F32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="G32" t="str">
-            <v>1407</v>
+            <v>1389</v>
           </cell>
           <cell r="H32" t="str">
-            <v>1208</v>
+            <v>1205</v>
           </cell>
           <cell r="I32" t="str">
-            <v>1205</v>
+            <v>1202</v>
           </cell>
           <cell r="J32" t="str">
             <v>764</v>
@@ -905,13 +905,13 @@
         </row>
         <row r="33">
           <cell r="C33" t="str">
-            <v>0.00074</v>
+            <v>0.00059</v>
           </cell>
           <cell r="E33" t="str">
-            <v>2.1e-11</v>
+            <v>1.6e-11</v>
           </cell>
           <cell r="G33" t="str">
-            <v>0.0020</v>
+            <v>0.0014</v>
           </cell>
           <cell r="I33" t="str">
             <v>0.00067</v>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]did_reg_emp!B5</f>
-        <v>-0.069***</v>
+        <v>-0.066***</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]did_reg_emp!C5</f>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]did_reg_emp!D5</f>
-        <v>-0.00034</v>
+        <v>-0.00020</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]did_reg_emp!E5</f>
@@ -1370,11 +1370,11 @@
       </c>
       <c r="H5" s="3" t="str">
         <f>[1]did_reg_emp!F5</f>
-        <v>-0.016</v>
+        <v>-0.017</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>[1]did_reg_emp!G5</f>
-        <v>-0.0031</v>
+        <v>-0.0029</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>[1]did_reg_emp!H5</f>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="L5" s="3" t="str">
         <f>[1]did_reg_emp!I5</f>
-        <v>0.0087</v>
+        <v>0.0086</v>
       </c>
       <c r="N5" s="3" t="str">
         <f>[1]did_reg_emp!J5</f>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]did_reg_emp!B8</f>
-        <v>-0.044***</v>
+        <v>-0.042***</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]did_reg_emp!C8</f>
@@ -1449,15 +1449,15 @@
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]did_reg_emp!D8</f>
-        <v>-0.0053</v>
+        <v>-0.0052</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]did_reg_emp!E8</f>
-        <v>-0.0091</v>
+        <v>-0.0090</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>[1]did_reg_emp!F8</f>
-        <v>-0.0094</v>
+        <v>-0.0095</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>[1]did_reg_emp!G8</f>
@@ -1483,7 +1483,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="str">
         <f>[1]did_reg_emp!B9</f>
-        <v>(0.012)</v>
+        <v>(0.011)</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>[1]did_reg_emp!C9</f>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B9" s="3" t="str">
         <f>[1]did_reg_emp!B11</f>
-        <v>-0.019***</v>
+        <v>-0.018***</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>[1]did_reg_emp!C11</f>
@@ -1536,19 +1536,19 @@
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]did_reg_emp!D11</f>
-        <v>-0.0028</v>
+        <v>-0.0030</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]did_reg_emp!E11</f>
-        <v>-0.0054</v>
+        <v>-0.0057</v>
       </c>
       <c r="H9" s="3" t="str">
         <f>[1]did_reg_emp!F11</f>
-        <v>-0.0018</v>
+        <v>-0.0019</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>[1]did_reg_emp!G11</f>
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K9" s="3" t="str">
         <f>[1]did_reg_emp!H11</f>
@@ -1570,7 +1570,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="str">
         <f>[1]did_reg_emp!B12</f>
-        <v>(0.0062)</v>
+        <v>(0.0061)</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]did_reg_emp!C12</f>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B12" s="3" t="str">
         <f>[1]did_reg_emp!B14</f>
-        <v>0.015***</v>
+        <v>0.014***</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]did_reg_emp!C14</f>
@@ -1623,23 +1623,23 @@
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]did_reg_emp!D14</f>
-        <v>-0.0094**</v>
+        <v>-0.0096**</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]did_reg_emp!E14</f>
-        <v>-0.0067</v>
+        <v>-0.0069</v>
       </c>
       <c r="H12" s="3" t="str">
         <f>[1]did_reg_emp!F14</f>
-        <v>-0.0015</v>
+        <v>-0.0018</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>[1]did_reg_emp!G14</f>
-        <v>-0.0012</v>
+        <v>-0.0017</v>
       </c>
       <c r="K12" s="3" t="str">
         <f>[1]did_reg_emp!H14</f>
-        <v>-0.0024</v>
+        <v>-0.0023</v>
       </c>
       <c r="L12" s="3" t="str">
         <f>[1]did_reg_emp!I14</f>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>[1]did_reg_emp!C15</f>
-        <v>(0.0051)</v>
+        <v>(0.0050)</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>[1]did_reg_emp!D15</f>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>[1]did_reg_emp!C17</f>
-        <v>0.022***</v>
+        <v>0.023***</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>[1]did_reg_emp!D17</f>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="F14" s="3" t="str">
         <f>[1]did_reg_emp!E17</f>
-        <v>-0.0070</v>
+        <v>-0.0072</v>
       </c>
       <c r="H14" s="3" t="str">
         <f>[1]did_reg_emp!F17</f>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="I14" s="3" t="str">
         <f>[1]did_reg_emp!G17</f>
-        <v>-0.0033</v>
+        <v>-0.0036</v>
       </c>
       <c r="K14" s="3" t="str">
         <f>[1]did_reg_emp!H17</f>
@@ -1744,11 +1744,11 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="str">
         <f>[1]did_reg_emp!B18</f>
-        <v>(0.0091)</v>
+        <v>(0.0090)</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]did_reg_emp!C18</f>
-        <v>(0.0087)</v>
+        <v>(0.0085)</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]did_reg_emp!D18</f>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="H15" s="3" t="str">
         <f>[1]did_reg_emp!F18</f>
-        <v>(0.0065)</v>
+        <v>(0.0066)</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>[1]did_reg_emp!G18</f>
@@ -1789,11 +1789,11 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]did_reg_emp!B20</f>
-        <v>0.025**</v>
+        <v>0.027**</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]did_reg_emp!C20</f>
-        <v>0.028**</v>
+        <v>0.029***</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]did_reg_emp!D20</f>
@@ -1801,19 +1801,19 @@
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]did_reg_emp!E20</f>
-        <v>-0.0093</v>
+        <v>-0.0095</v>
       </c>
       <c r="H16" s="3" t="str">
         <f>[1]did_reg_emp!F20</f>
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="I16" s="3" t="str">
         <f>[1]did_reg_emp!G20</f>
-        <v>-0.0063</v>
+        <v>-0.0058</v>
       </c>
       <c r="K16" s="3" t="str">
         <f>[1]did_reg_emp!H20</f>
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="L16" s="3" t="str">
         <f>[1]did_reg_emp!I20</f>
@@ -1876,19 +1876,19 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]did_reg_emp!B23</f>
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]did_reg_emp!C23</f>
-        <v>0.022</v>
+        <v>0.024*</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]did_reg_emp!D23</f>
-        <v>-0.026**</v>
+        <v>-0.027**</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]did_reg_emp!E23</f>
-        <v>-0.0095</v>
+        <v>-0.0098</v>
       </c>
       <c r="H18" s="3" t="str">
         <f>[1]did_reg_emp!F23</f>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="K18" s="3" t="str">
         <f>[1]did_reg_emp!H23</f>
-        <v>0.000070</v>
+        <v>0.000078</v>
       </c>
       <c r="L18" s="3" t="str">
         <f>[1]did_reg_emp!I23</f>
@@ -1918,7 +1918,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="str">
         <f>[1]did_reg_emp!B24</f>
-        <v>(0.016)</v>
+        <v>(0.015)</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>[1]did_reg_emp!C24</f>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="B20" s="3" t="str">
         <f>[1]did_reg_emp!B26</f>
-        <v>0.00011</v>
+        <v>0.0059</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>[1]did_reg_emp!C26</f>
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>[1]did_reg_emp!D26</f>
-        <v>-0.038**</v>
+        <v>-0.039***</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>[1]did_reg_emp!E26</f>
-        <v>-0.0090</v>
+        <v>-0.0093</v>
       </c>
       <c r="H20" s="3" t="str">
         <f>[1]did_reg_emp!F26</f>
-        <v>-0.036***</v>
+        <v>-0.035***</v>
       </c>
       <c r="I20" s="3" t="str">
         <f>[1]did_reg_emp!G26</f>
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="K20" s="3" t="str">
         <f>[1]did_reg_emp!H26</f>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="B21" s="3" t="str">
         <f>[1]did_reg_emp!B27</f>
-        <v>(0.020)</v>
+        <v>(0.019)</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[1]did_reg_emp!C27</f>
-        <v>(0.017)</v>
+        <v>(0.016)</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]did_reg_emp!D27</f>
@@ -2054,38 +2054,38 @@
       </c>
       <c r="B23" s="5" t="str">
         <f>[1]did_reg_emp!B29</f>
-        <v>66268</v>
+        <v>65424</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>[1]did_reg_emp!C29</f>
-        <v>66127</v>
+        <v>65283</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="str">
         <f>[1]did_reg_emp!D29</f>
-        <v>64223</v>
+        <v>63586</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>[1]did_reg_emp!E29</f>
-        <v>64082</v>
+        <v>63445</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="str">
         <f>[1]did_reg_emp!F29</f>
-        <v>65802</v>
+        <v>65200</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>[1]did_reg_emp!G29</f>
-        <v>65661</v>
+        <v>65059</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="str">
         <f>[1]did_reg_emp!H29</f>
-        <v>42849</v>
+        <v>42839</v>
       </c>
       <c r="L23" s="5" t="str">
         <f>[1]did_reg_emp!I29</f>
-        <v>42708</v>
+        <v>42698</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="str">
@@ -2103,35 +2103,35 @@
       </c>
       <c r="B24" s="3" t="str">
         <f>[1]did_reg_emp!B32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]did_reg_emp!C32</f>
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]did_reg_emp!D32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>[1]did_reg_emp!E32</f>
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>[1]did_reg_emp!F32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>[1]did_reg_emp!G32</f>
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="K24" s="3" t="str">
         <f>[1]did_reg_emp!H32</f>
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="L24" s="3" t="str">
         <f>[1]did_reg_emp!I32</f>
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="N24" s="3" t="str">
         <f>[1]did_reg_emp!J32</f>
@@ -2149,27 +2149,27 @@
       </c>
       <c r="B25" s="3" t="str">
         <f>[1]did_reg_emp!B30</f>
-        <v>0.221</v>
+        <v>0.229</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>[1]did_reg_emp!C30</f>
-        <v>0.233</v>
+        <v>0.240</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>[1]did_reg_emp!D30</f>
-        <v>0.186</v>
+        <v>0.188</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>[1]did_reg_emp!E30</f>
-        <v>0.193</v>
+        <v>0.195</v>
       </c>
       <c r="H25" s="3" t="str">
         <f>[1]did_reg_emp!F30</f>
-        <v>0.193</v>
+        <v>0.198</v>
       </c>
       <c r="I25" s="3" t="str">
         <f>[1]did_reg_emp!G30</f>
-        <v>0.204</v>
+        <v>0.210</v>
       </c>
       <c r="K25" s="3" t="str">
         <f>[1]did_reg_emp!H30</f>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="B26" s="10" t="str">
         <f>[1]did_reg_emp!B31</f>
-        <v>6.33</v>
+        <v>6.39</v>
       </c>
       <c r="C26" s="10" t="str">
         <f>[1]did_reg_emp!C31</f>
-        <v>6.32</v>
+        <v>6.38</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="str">
         <f>[1]did_reg_emp!D31</f>
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>[1]did_reg_emp!E31</f>
-        <v>3.17</v>
+        <v>3.20</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10" t="str">
         <f>[1]did_reg_emp!F31</f>
-        <v>5.56</v>
+        <v>5.59</v>
       </c>
       <c r="I26" s="10" t="str">
         <f>[1]did_reg_emp!G31</f>
-        <v>5.55</v>
+        <v>5.58</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="str">
@@ -2257,7 +2257,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6">
         <f>ROUND([1]did_reg_emp!G33,3)</f>
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
